--- a/CHECKLIST.xlsx
+++ b/CHECKLIST.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Introduction</t>
   </si>
   <si>
-    <t>population per region</t>
-  </si>
-  <si>
-    <t>poverty incidence among population per region</t>
-  </si>
-  <si>
-    <t>poverty incidence among family per region</t>
-  </si>
-  <si>
-    <t>family per region</t>
-  </si>
-  <si>
     <t>total income of families per region</t>
   </si>
   <si>
@@ -80,13 +68,27 @@
     <t>Add more</t>
   </si>
   <si>
-    <t>OK - add more</t>
-  </si>
-  <si>
     <t>Graph / codes- Johanna</t>
   </si>
   <si>
     <t xml:space="preserve">Poverty Incidence Per Region for 2012 and 2015 </t>
+  </si>
+  <si>
+    <t>OK- add more</t>
+  </si>
+  <si>
+    <t>population per region 2012/2015</t>
+  </si>
+  <si>
+    <t>poverty incidence among population per region 
+2012/2015</t>
+  </si>
+  <si>
+    <t>poverty incidence among family per region
+2012/2015</t>
+  </si>
+  <si>
+    <t>family per region 2012</t>
   </si>
 </sst>
 </file>
@@ -159,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -168,6 +170,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,16 +503,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,10 +525,12 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,10 +541,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -548,12 +555,12 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -564,12 +571,12 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -582,10 +589,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -598,9 +605,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
@@ -612,9 +621,11 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
@@ -626,9 +637,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
@@ -640,10 +653,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -656,10 +669,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -672,10 +685,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -688,10 +701,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -704,7 +717,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -718,7 +731,7 @@
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
